--- a/Detailed Planning.xlsx
+++ b/Detailed Planning.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07299c114d3a53a5/Sachin/Spring/Studio/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Technical" sheetId="1" r:id="rId1"/>
     <sheet name="Management" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -69,9 +64,6 @@
     <t>Identify and outline requirement</t>
   </si>
   <si>
-    <t>Analayse existing system</t>
-  </si>
-  <si>
     <t>Create test cases - architecture</t>
   </si>
   <si>
@@ -208,13 +200,16 @@
   </si>
   <si>
     <t>detailed usecase  scenarios/ model</t>
+  </si>
+  <si>
+    <t>Analyse existing system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,7 +351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,21 +528,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.5703125" customWidth="1"/>
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
@@ -558,29 +553,29 @@
     <col min="11" max="11" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1">
         <v>42006</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -588,13 +583,13 @@
         <v>42006</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -602,16 +597,16 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1">
         <v>42006</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -622,16 +617,16 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1">
         <v>42007</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -639,47 +634,47 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -687,15 +682,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -703,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -711,24 +706,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -736,271 +731,271 @@
         <v>42007</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>32</v>
-      </c>
       <c r="C67" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1010,14 +1005,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
